--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_72_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_72_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.357769421422322, 5.9706068011082785]</t>
+          <t>[5.3669357561860975, 5.961440466344503]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.9308422677303101, -0.8302106712189241]</t>
+          <t>[-0.9434212172942331, -0.8176317216550011]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.1953006314555843, 0.5037226163480568]</t>
+          <t>[0.1951361591245897, 0.5038870886790514]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>3.856199595886345e-05</v>
+        <v>3.917684308651914e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>3.856199595886345e-05</v>
+        <v>3.917684308651914e-05</v>
       </c>
       <c r="W2" t="n">
         <v>3.136336336336388</v>
       </c>
       <c r="X2" t="n">
-        <v>2.957117117117164</v>
+        <v>2.912312312312358</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.315555555555612</v>
+        <v>3.360360360360418</v>
       </c>
     </row>
   </sheetData>
